--- a/PROYECTO ENTORNOS/Documentos/Diagrama de Gantt - ENTORNOS - Deluxo Host.xlsx
+++ b/PROYECTO ENTORNOS/Documentos/Diagrama de Gantt - ENTORNOS - Deluxo Host.xlsx
@@ -1797,11 +1797,11 @@
       </c>
       <c r="C9" s="20">
         <f>(D9-B9)</f>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D9" s="28">
         <f>TODAY()</f>
-        <v>45065</v>
+        <v>45074</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -1973,11 +1973,11 @@
       </c>
       <c r="C11" s="20">
         <f>(D11-B11)</f>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D11" s="28">
         <f>TODAY()</f>
-        <v>45065</v>
+        <v>45074</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -2149,11 +2149,11 @@
       </c>
       <c r="C13" s="20">
         <f>(D13-B13)</f>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D13" s="28">
         <f>TODAY()</f>
-        <v>45065</v>
+        <v>45074</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
@@ -2325,11 +2325,11 @@
       </c>
       <c r="C15" s="20">
         <f>(D15-B15)</f>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D15" s="28">
         <f>TODAY()</f>
-        <v>45065</v>
+        <v>45074</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -2501,11 +2501,11 @@
       </c>
       <c r="C17" s="20">
         <f>(D17-B17)</f>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D17" s="28">
         <f>TODAY()</f>
-        <v>45065</v>
+        <v>45074</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -2677,11 +2677,11 @@
       </c>
       <c r="C19" s="20">
         <f>(D19-B19)</f>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D19" s="28">
         <f>TODAY()</f>
-        <v>45065</v>
+        <v>45074</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -2853,11 +2853,11 @@
       </c>
       <c r="C21" s="20">
         <f>(D21-B21)</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D21" s="28">
         <f>TODAY()</f>
-        <v>45065</v>
+        <v>45074</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -3029,11 +3029,11 @@
       </c>
       <c r="C23" s="20">
         <f>(D23-B23)</f>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D23" s="28">
         <f>TODAY()</f>
-        <v>45065</v>
+        <v>45074</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -3205,11 +3205,11 @@
       </c>
       <c r="C25" s="20">
         <f>(D25-B25)</f>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D25" s="28">
         <f>TODAY()</f>
-        <v>45065</v>
+        <v>45074</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -3556,11 +3556,11 @@
       </c>
       <c r="C29" s="20">
         <f>(D29-B29)</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D29" s="28">
         <f>TODAY()</f>
-        <v>45065</v>
+        <v>45074</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -3732,11 +3732,11 @@
       </c>
       <c r="C31" s="20">
         <f>(D31-B31)</f>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D31" s="28">
         <f>TODAY()</f>
-        <v>45065</v>
+        <v>45074</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
@@ -3908,11 +3908,11 @@
       </c>
       <c r="C33" s="20">
         <f>(D33-B33)</f>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D33" s="28">
         <f>TODAY()</f>
-        <v>45065</v>
+        <v>45074</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
